--- a/CS304 Project.xlsx
+++ b/CS304 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74A850-46F4-8A4E-83AB-E89D3374A0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE507A0-C4BE-474F-81BD-0035E7A96AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{4FF73C70-619E-4A4E-9D5E-EDB17466567F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11280" activeTab="1" xr2:uid="{4FF73C70-619E-4A4E-9D5E-EDB17466567F}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -547,13 +547,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAE6F5-113B-A64D-AA3E-8B2557AA4F7B}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
@@ -1917,11 +1917,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA94FC3F-25AF-0142-BAE5-764EB0A9B859}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,6 +1931,7 @@
     <col min="3" max="3" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2672,7 +2673,7 @@
         <v>44563.4375</v>
       </c>
       <c r="C44" s="3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D44" s="3">
         <v>-2</v>
@@ -2689,7 +2690,7 @@
         <v>44563.450694444444</v>
       </c>
       <c r="C45" s="3">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D45" s="3">
         <v>-1</v>
@@ -2706,7 +2707,7 @@
         <v>44563.5</v>
       </c>
       <c r="C46" s="3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D46" s="3">
         <v>-3</v>
@@ -2723,7 +2724,7 @@
         <v>44563.6875</v>
       </c>
       <c r="C47" s="3">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
         <v>-1</v>
@@ -2740,7 +2741,7 @@
         <v>44563.75</v>
       </c>
       <c r="C48" s="3">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -2757,7 +2758,7 @@
         <v>44563.854166666664</v>
       </c>
       <c r="C49" s="3">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D49" s="3">
         <v>-2</v>
@@ -2774,7 +2775,7 @@
         <v>44563.868055555555</v>
       </c>
       <c r="C50" s="3">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3">
         <v>-1</v>
@@ -2791,7 +2792,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C51" s="3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D51" s="3">
         <v>15</v>
@@ -2808,7 +2809,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C52" s="3">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3">
         <v>25</v>
@@ -2825,7 +2826,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C53" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3">
         <v>65</v>
@@ -2842,7 +2843,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C54" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D54" s="3">
         <v>35</v>
@@ -2859,7 +2860,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C55" s="3">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3">
         <v>10</v>
@@ -2876,7 +2877,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C56" s="3">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D56" s="3">
         <v>10</v>
@@ -2893,7 +2894,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C57" s="3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D57" s="3">
         <v>30</v>
@@ -2910,7 +2911,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C58" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D58" s="3">
         <v>15</v>
@@ -2927,7 +2928,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C59" s="3">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D59" s="3">
         <v>10</v>
@@ -2944,7 +2945,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C60" s="3">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D60" s="3">
         <v>90</v>
@@ -2961,7 +2962,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C61" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D61" s="3">
         <v>70</v>
@@ -2978,7 +2979,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C62" s="3">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D62" s="3">
         <v>50</v>
@@ -2995,7 +2996,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C63" s="3">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3">
         <v>50</v>
@@ -3012,7 +3013,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C64" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D64" s="3">
         <v>70</v>
@@ -3029,7 +3030,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C65" s="3">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D65" s="3">
         <v>30</v>
@@ -3046,7 +3047,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C66" s="3">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D66" s="3">
         <v>10</v>
@@ -3063,7 +3064,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C67" s="3">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D67" s="3">
         <v>70</v>
@@ -3080,7 +3081,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C68" s="3">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D68" s="3">
         <v>45</v>
@@ -3097,7 +3098,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C69" s="3">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D69" s="3">
         <v>25</v>
@@ -3114,7 +3115,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C70" s="3">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D70" s="3">
         <v>85</v>
@@ -3131,7 +3132,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C71" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D71" s="3">
         <v>95</v>
@@ -3148,7 +3149,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C72" s="3">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D72" s="3">
         <v>60</v>
@@ -3165,7 +3166,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C73" s="3">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D73" s="3">
         <v>100</v>
@@ -3182,7 +3183,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C74" s="3">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D74" s="3">
         <v>100</v>
@@ -3199,7 +3200,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C75" s="3">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D75" s="3">
         <v>80</v>
@@ -3216,7 +3217,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C76" s="3">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D76" s="3">
         <v>60</v>
@@ -3233,7 +3234,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C77" s="3">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D77" s="3">
         <v>40</v>
@@ -3250,7 +3251,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C78" s="3">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D78" s="3">
         <v>30</v>
@@ -3267,7 +3268,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C79" s="3">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D79" s="3">
         <v>30</v>
@@ -3284,7 +3285,7 @@
         <v>44564.354166666664</v>
       </c>
       <c r="C80" s="3">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D80" s="3">
         <v>20</v>
@@ -3301,7 +3302,7 @@
         <v>44564.395833333336</v>
       </c>
       <c r="C81" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D81" s="3">
         <v>-3</v>
@@ -3318,7 +3319,7 @@
         <v>44564.409722222219</v>
       </c>
       <c r="C82" s="3">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D82" s="3">
         <v>-3</v>
@@ -3335,7 +3336,7 @@
         <v>44564.4375</v>
       </c>
       <c r="C83" s="3">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D83" s="3">
         <v>-1</v>
@@ -3349,10 +3350,10 @@
         <v>13</v>
       </c>
       <c r="B84" s="5">
-        <v>44564.4375</v>
+        <v>44564.440972222219</v>
       </c>
       <c r="C84" s="3">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D84" s="3">
         <v>-4</v>
@@ -3369,7 +3370,7 @@
         <v>44564.520833333336</v>
       </c>
       <c r="C85" s="3">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D85" s="3">
         <v>-4</v>
@@ -3386,7 +3387,7 @@
         <v>44564.666666666664</v>
       </c>
       <c r="C86" s="3">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D86" s="3">
         <v>-5</v>
@@ -3403,7 +3404,7 @@
         <v>44564.6875</v>
       </c>
       <c r="C87" s="3">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3">
         <v>-3</v>
@@ -3420,7 +3421,7 @@
         <v>44564.708333333336</v>
       </c>
       <c r="C88" s="3">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -3437,7 +3438,7 @@
         <v>44565.770833333336</v>
       </c>
       <c r="C89" s="3">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D89" s="3">
         <v>-2</v>
@@ -3454,7 +3455,7 @@
         <v>44565.854166666664</v>
       </c>
       <c r="C90" s="3">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D90" s="3">
         <v>-4</v>
@@ -3471,7 +3472,7 @@
         <v>44566.875</v>
       </c>
       <c r="C91" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D91" s="3">
         <v>-3</v>
@@ -3488,7 +3489,7 @@
         <v>44566.895833333336</v>
       </c>
       <c r="C92" s="3">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D92" s="3">
         <v>-4</v>
@@ -3505,10 +3506,10 @@
         <v>44567.354166666664</v>
       </c>
       <c r="C93" s="3">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D93" s="3">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>132</v>
@@ -3522,10 +3523,10 @@
         <v>44567.354166666664</v>
       </c>
       <c r="C94" s="3">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D94" s="3">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>132</v>
@@ -3539,10 +3540,10 @@
         <v>44567.354166666664</v>
       </c>
       <c r="C95" s="3">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D95" s="3">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>132</v>
@@ -3556,10 +3557,10 @@
         <v>44567.354166666664</v>
       </c>
       <c r="C96" s="3">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D96" s="3">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>132</v>
@@ -3587,7 +3588,7 @@
         <v>24</v>
       </c>
       <c r="B98" s="5">
-        <v>44567.4375</v>
+        <v>44567.440972222219</v>
       </c>
       <c r="C98" s="3">
         <v>97</v>
@@ -3607,10 +3608,10 @@
         <v>44568.354166666664</v>
       </c>
       <c r="C99" s="3">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>132</v>
@@ -3624,10 +3625,10 @@
         <v>44568.354166666664</v>
       </c>
       <c r="C100" s="3">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D100" s="3">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>132</v>
@@ -3641,10 +3642,10 @@
         <v>44568.354166666664</v>
       </c>
       <c r="C101" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D101" s="3">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>132</v>
@@ -3658,10 +3659,10 @@
         <v>44569.354166666664</v>
       </c>
       <c r="C102" s="3">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D102" s="3">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>130</v>
@@ -3675,10 +3676,10 @@
         <v>44569.354166666664</v>
       </c>
       <c r="C103" s="3">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="D103" s="3">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>130</v>
@@ -3692,10 +3693,10 @@
         <v>44570.354166666664</v>
       </c>
       <c r="C104" s="3">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D104" s="3">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>130</v>
@@ -3709,10 +3710,10 @@
         <v>44570.354166666664</v>
       </c>
       <c r="C105" s="3">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="D105" s="3">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>130</v>
@@ -3726,7 +3727,7 @@
         <v>44571.395833333336</v>
       </c>
       <c r="C106" s="3">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D106" s="3">
         <v>-5</v>
@@ -3743,7 +3744,7 @@
         <v>44571.434027777781</v>
       </c>
       <c r="C107" s="3">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D107" s="3">
         <v>-5</v>
@@ -3760,7 +3761,7 @@
         <v>44571.4375</v>
       </c>
       <c r="C108" s="3">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -3774,10 +3775,10 @@
         <v>30</v>
       </c>
       <c r="B109" s="6">
-        <v>44571.4375</v>
+        <v>44571.444444444445</v>
       </c>
       <c r="C109" s="3">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D109" s="3">
         <v>-2</v>
@@ -3794,7 +3795,7 @@
         <v>44572.354166666664</v>
       </c>
       <c r="C110" s="3">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D110" s="3">
         <v>24</v>
@@ -3811,7 +3812,7 @@
         <v>44572.4375</v>
       </c>
       <c r="C111" s="3">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="D111" s="3">
         <v>-5</v>
@@ -3828,10 +3829,10 @@
         <v>44573.354166666664</v>
       </c>
       <c r="C112" s="3">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D112" s="3">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>130</v>
@@ -3845,10 +3846,10 @@
         <v>44574.354166666664</v>
       </c>
       <c r="C113" s="3">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D113" s="3">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>130</v>
@@ -3862,10 +3863,10 @@
         <v>44574.354166666664</v>
       </c>
       <c r="C114" s="3">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D114" s="3">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>130</v>
@@ -3879,10 +3880,10 @@
         <v>44574.354166666664</v>
       </c>
       <c r="C115" s="3">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="D115" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>130</v>
@@ -3896,10 +3897,10 @@
         <v>44574.354166666664</v>
       </c>
       <c r="C116" s="3">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D116" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>130</v>
@@ -3913,10 +3914,10 @@
         <v>44575.354166666664</v>
       </c>
       <c r="C117" s="3">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="D117" s="3">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>133</v>
@@ -3930,10 +3931,10 @@
         <v>44575.354166666664</v>
       </c>
       <c r="C118" s="3">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="D118" s="3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>133</v>
@@ -3947,10 +3948,10 @@
         <v>44576.354166666664</v>
       </c>
       <c r="C119" s="3">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D119" s="3">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>133</v>
@@ -3964,7 +3965,7 @@
         <v>44576.395833333336</v>
       </c>
       <c r="C120" s="3">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D120" s="3">
         <v>-3</v>
@@ -3978,10 +3979,10 @@
         <v>36</v>
       </c>
       <c r="B121" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.396527777775</v>
       </c>
       <c r="C121" s="3">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D121" s="3">
         <v>-3</v>
@@ -3995,10 +3996,10 @@
         <v>37</v>
       </c>
       <c r="B122" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.397222222222</v>
       </c>
       <c r="C122" s="3">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3">
         <v>-4</v>
@@ -4012,10 +4013,10 @@
         <v>38</v>
       </c>
       <c r="B123" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.397916666669</v>
       </c>
       <c r="C123" s="3">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="D123" s="3">
         <v>-2</v>
@@ -4029,10 +4030,10 @@
         <v>39</v>
       </c>
       <c r="B124" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.398611111108</v>
       </c>
       <c r="C124" s="3">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -4046,10 +4047,10 @@
         <v>40</v>
       </c>
       <c r="B125" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.399305555555</v>
       </c>
       <c r="C125" s="3">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -4063,10 +4064,10 @@
         <v>41</v>
       </c>
       <c r="B126" s="5">
-        <v>44576.395833333336</v>
+        <v>44576.4</v>
       </c>
       <c r="C126" s="3">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D126" s="3">
         <v>-3</v>
@@ -4083,7 +4084,7 @@
         <v>44576.40625</v>
       </c>
       <c r="C127" s="3">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D127" s="3">
         <v>-4</v>
@@ -4097,10 +4098,10 @@
         <v>43</v>
       </c>
       <c r="B128" s="5">
-        <v>44576.40625</v>
+        <v>44576.400694444441</v>
       </c>
       <c r="C128" s="3">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D128" s="3">
         <v>-2</v>
@@ -4114,10 +4115,10 @@
         <v>44</v>
       </c>
       <c r="B129" s="5">
-        <v>44576.40625</v>
+        <v>44576.408333333333</v>
       </c>
       <c r="C129" s="3">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D129" s="3">
         <v>-3</v>
@@ -4131,10 +4132,10 @@
         <v>45</v>
       </c>
       <c r="B130" s="5">
-        <v>44576.40625</v>
+        <v>44576.409722222219</v>
       </c>
       <c r="C130" s="3">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D130" s="3">
         <v>-1</v>
@@ -4148,10 +4149,10 @@
         <v>46</v>
       </c>
       <c r="B131" s="5">
-        <v>44576.40625</v>
+        <v>44576.411111111112</v>
       </c>
       <c r="C131" s="3">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="D131" s="3">
         <v>-2</v>
@@ -4165,10 +4166,10 @@
         <v>47</v>
       </c>
       <c r="B132" s="5">
-        <v>44576.40625</v>
+        <v>44576.412499999999</v>
       </c>
       <c r="C132" s="3">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D132" s="3">
         <v>-2</v>
@@ -4185,7 +4186,7 @@
         <v>44576.416666666664</v>
       </c>
       <c r="C133" s="3">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -4202,7 +4203,7 @@
         <v>44576.6875</v>
       </c>
       <c r="C134" s="3">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D134" s="3">
         <v>-2</v>
@@ -4216,10 +4217,10 @@
         <v>50</v>
       </c>
       <c r="B135" s="5">
-        <v>44576.6875</v>
+        <v>44576.697222222225</v>
       </c>
       <c r="C135" s="3">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D135" s="3">
         <v>-2</v>
@@ -4233,10 +4234,10 @@
         <v>51</v>
       </c>
       <c r="B136" s="5">
-        <v>44576.6875</v>
+        <v>44576.697916666664</v>
       </c>
       <c r="C136" s="3">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="D136" s="3">
         <v>-2</v>
@@ -4250,10 +4251,10 @@
         <v>52</v>
       </c>
       <c r="B137" s="5">
-        <v>44576.6875</v>
+        <v>44576.698611111111</v>
       </c>
       <c r="C137" s="3">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D137" s="3">
         <v>-4</v>
@@ -4267,10 +4268,10 @@
         <v>53</v>
       </c>
       <c r="B138" s="5">
-        <v>44576.6875</v>
+        <v>44576.699305555558</v>
       </c>
       <c r="C138" s="3">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="D138" s="3">
         <v>-2</v>
@@ -4284,10 +4285,10 @@
         <v>54</v>
       </c>
       <c r="B139" s="5">
-        <v>44576.6875</v>
+        <v>44576.7</v>
       </c>
       <c r="C139" s="3">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D139" s="3">
         <v>-2</v>
@@ -4304,7 +4305,7 @@
         <v>44576.770833333336</v>
       </c>
       <c r="C140" s="3">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="D140" s="3">
         <v>-4</v>
@@ -4318,10 +4319,10 @@
         <v>56</v>
       </c>
       <c r="B141" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.772222222222</v>
       </c>
       <c r="C141" s="3">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -4335,10 +4336,10 @@
         <v>57</v>
       </c>
       <c r="B142" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.772916666669</v>
       </c>
       <c r="C142" s="3">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="D142" s="3">
         <v>-4</v>
@@ -4352,10 +4353,10 @@
         <v>58</v>
       </c>
       <c r="B143" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.773611111108</v>
       </c>
       <c r="C143" s="3">
-        <v>142</v>
+        <v>3</v>
       </c>
       <c r="D143" s="3">
         <v>-2</v>
@@ -4369,10 +4370,10 @@
         <v>59</v>
       </c>
       <c r="B144" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.774305555555</v>
       </c>
       <c r="C144" s="3">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="D144" s="3">
         <v>-4</v>
@@ -4386,10 +4387,10 @@
         <v>60</v>
       </c>
       <c r="B145" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.775000000001</v>
       </c>
       <c r="C145" s="3">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D145" s="3">
         <v>-4</v>
@@ -4403,10 +4404,10 @@
         <v>61</v>
       </c>
       <c r="B146" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.775694444441</v>
       </c>
       <c r="C146" s="3">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="D146" s="3">
         <v>-3</v>
@@ -4420,10 +4421,10 @@
         <v>62</v>
       </c>
       <c r="B147" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.776388888888</v>
       </c>
       <c r="C147" s="3">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="D147" s="3">
         <v>-4</v>
@@ -4437,10 +4438,10 @@
         <v>63</v>
       </c>
       <c r="B148" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.777777777781</v>
       </c>
       <c r="C148" s="3">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D148" s="3">
         <v>-4</v>
@@ -4454,10 +4455,10 @@
         <v>64</v>
       </c>
       <c r="B149" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.78125</v>
       </c>
       <c r="C149" s="3">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="D149" s="3">
         <v>-1</v>
@@ -4471,10 +4472,10 @@
         <v>65</v>
       </c>
       <c r="B150" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.784722222219</v>
       </c>
       <c r="C150" s="3">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="D150" s="3">
         <v>-2</v>
@@ -4488,10 +4489,10 @@
         <v>66</v>
       </c>
       <c r="B151" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.785416666666</v>
       </c>
       <c r="C151" s="3">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="D151" s="3">
         <v>-2</v>
@@ -4505,10 +4506,10 @@
         <v>67</v>
       </c>
       <c r="B152" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.786111111112</v>
       </c>
       <c r="C152" s="3">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="D152" s="3">
         <v>-1</v>
@@ -4522,10 +4523,10 @@
         <v>68</v>
       </c>
       <c r="B153" s="5">
-        <v>44576.770833333336</v>
+        <v>44576.786805555559</v>
       </c>
       <c r="C153" s="3">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="D153" s="3">
         <v>-3</v>
@@ -4542,10 +4543,10 @@
         <v>44577.354166666664</v>
       </c>
       <c r="C154" s="3">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="D154" s="3">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>132</v>
@@ -4559,10 +4560,10 @@
         <v>44577.354166666664</v>
       </c>
       <c r="C155" s="3">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="D155" s="3">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>132</v>
@@ -4576,10 +4577,10 @@
         <v>44577.354166666664</v>
       </c>
       <c r="C156" s="3">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D156" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>132</v>
@@ -4593,10 +4594,10 @@
         <v>44577.354166666664</v>
       </c>
       <c r="C157" s="3">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="D157" s="3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>132</v>
@@ -4610,10 +4611,10 @@
         <v>44577.354166666664</v>
       </c>
       <c r="C158" s="3">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="D158" s="3">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>132</v>
@@ -4627,7 +4628,7 @@
         <v>44577.40625</v>
       </c>
       <c r="C159" s="3">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="D159" s="3">
         <v>-3</v>
@@ -4641,10 +4642,10 @@
         <v>71</v>
       </c>
       <c r="B160" s="5">
-        <v>44577.40625</v>
+        <v>44577.409722222219</v>
       </c>
       <c r="C160" s="3">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D160" s="3">
         <v>-4</v>
@@ -4658,10 +4659,10 @@
         <v>72</v>
       </c>
       <c r="B161" s="5">
-        <v>44577.40625</v>
+        <v>44577.410416666666</v>
       </c>
       <c r="C161" s="3">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="D161" s="3">
         <v>-1</v>
@@ -4675,10 +4676,10 @@
         <v>73</v>
       </c>
       <c r="B162" s="5">
-        <v>44577.40625</v>
+        <v>44577.411111111112</v>
       </c>
       <c r="C162" s="3">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="D162" s="3">
         <v>-1</v>
@@ -4695,7 +4696,7 @@
         <v>44577.416666666664</v>
       </c>
       <c r="C163" s="3">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="D163" s="3">
         <v>-1</v>
@@ -4712,7 +4713,7 @@
         <v>44577.6875</v>
       </c>
       <c r="C164" s="3">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="D164" s="3">
         <v>-3</v>
@@ -4726,10 +4727,10 @@
         <v>76</v>
       </c>
       <c r="B165" s="5">
-        <v>44577.6875</v>
+        <v>44577.688888888886</v>
       </c>
       <c r="C165" s="3">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="D165" s="3">
         <v>-1</v>
@@ -4743,10 +4744,10 @@
         <v>77</v>
       </c>
       <c r="B166" s="5">
-        <v>44577.6875</v>
+        <v>44577.689583333333</v>
       </c>
       <c r="C166" s="3">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="D166" s="3">
         <v>-3</v>
@@ -4760,10 +4761,10 @@
         <v>78</v>
       </c>
       <c r="B167" s="5">
-        <v>44577.6875</v>
+        <v>44577.69027777778</v>
       </c>
       <c r="C167" s="3">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D167" s="3">
         <v>-3</v>
@@ -4777,10 +4778,10 @@
         <v>79</v>
       </c>
       <c r="B168" s="5">
-        <v>44577.6875</v>
+        <v>44577.690972222219</v>
       </c>
       <c r="C168" s="3">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="D168" s="3">
         <v>-3</v>
@@ -4794,10 +4795,10 @@
         <v>80</v>
       </c>
       <c r="B169" s="5">
-        <v>44577.6875</v>
+        <v>44577.691666666666</v>
       </c>
       <c r="C169" s="3">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="D169" s="3">
         <v>-2</v>
@@ -4814,7 +4815,7 @@
         <v>44577.770833333336</v>
       </c>
       <c r="C170" s="3">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="D170" s="3">
         <v>-3</v>
@@ -4828,10 +4829,10 @@
         <v>82</v>
       </c>
       <c r="B171" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.771527777775</v>
       </c>
       <c r="C171" s="3">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D171" s="3">
         <v>-4</v>
@@ -4845,10 +4846,10 @@
         <v>83</v>
       </c>
       <c r="B172" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.772222222222</v>
       </c>
       <c r="C172" s="3">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D172" s="3">
         <v>-2</v>
@@ -4862,10 +4863,10 @@
         <v>84</v>
       </c>
       <c r="B173" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.772916666669</v>
       </c>
       <c r="C173" s="3">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D173" s="3">
         <v>-1</v>
@@ -4879,10 +4880,10 @@
         <v>85</v>
       </c>
       <c r="B174" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.773611111108</v>
       </c>
       <c r="C174" s="3">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="D174" s="3">
         <v>-2</v>
@@ -4896,10 +4897,10 @@
         <v>86</v>
       </c>
       <c r="B175" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.774305555555</v>
       </c>
       <c r="C175" s="3">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="D175" s="3">
         <v>-1</v>
@@ -4913,10 +4914,10 @@
         <v>87</v>
       </c>
       <c r="B176" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.775000000001</v>
       </c>
       <c r="C176" s="3">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="D176" s="3">
         <v>-2</v>
@@ -4930,10 +4931,10 @@
         <v>88</v>
       </c>
       <c r="B177" s="5">
-        <v>44577.770833333336</v>
+        <v>44577.775694444441</v>
       </c>
       <c r="C177" s="3">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="D177" s="3">
         <v>-2</v>
@@ -4950,10 +4951,10 @@
         <v>44578.354166666664</v>
       </c>
       <c r="C178" s="3">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D178" s="3">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>132</v>
@@ -4967,10 +4968,10 @@
         <v>44578.354166666664</v>
       </c>
       <c r="C179" s="3">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="D179" s="3">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>132</v>
@@ -4984,10 +4985,10 @@
         <v>44581.354166666664</v>
       </c>
       <c r="C180" s="3">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D180" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>132</v>
@@ -5001,10 +5002,10 @@
         <v>44581.354166666664</v>
       </c>
       <c r="C181" s="3">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="D181" s="3">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>132</v>
@@ -5018,10 +5019,10 @@
         <v>44581.354166666664</v>
       </c>
       <c r="C182" s="3">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D182" s="3">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>132</v>
@@ -5035,7 +5036,7 @@
         <v>44581.395833333336</v>
       </c>
       <c r="C183" s="3">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="D183" s="3">
         <v>-2</v>
@@ -5049,10 +5050,10 @@
         <v>92</v>
       </c>
       <c r="B184" s="5">
-        <v>44581.395833333336</v>
+        <v>44581.396527777775</v>
       </c>
       <c r="C184" s="3">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="D184" s="3">
         <v>-4</v>
@@ -5066,10 +5067,10 @@
         <v>93</v>
       </c>
       <c r="B185" s="5">
-        <v>44581.395833333336</v>
+        <v>44581.397222222222</v>
       </c>
       <c r="C185" s="3">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="D185" s="3">
         <v>-1</v>
@@ -5083,10 +5084,10 @@
         <v>94</v>
       </c>
       <c r="B186" s="5">
-        <v>44581.395833333336</v>
+        <v>44581.397916666669</v>
       </c>
       <c r="C186" s="3">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="D186" s="3">
         <v>-1</v>
@@ -5100,10 +5101,10 @@
         <v>95</v>
       </c>
       <c r="B187" s="5">
-        <v>44581.395833333336</v>
+        <v>44581.398611111108</v>
       </c>
       <c r="C187" s="3">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="D187" s="3">
         <v>-3</v>
@@ -5120,7 +5121,7 @@
         <v>44581.40625</v>
       </c>
       <c r="C188" s="3">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="D188" s="3">
         <v>-4</v>
@@ -5134,10 +5135,10 @@
         <v>97</v>
       </c>
       <c r="B189" s="5">
-        <v>44581.40625</v>
+        <v>44581.406944444447</v>
       </c>
       <c r="C189" s="3">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="D189" s="3">
         <v>-3</v>
@@ -5151,10 +5152,10 @@
         <v>98</v>
       </c>
       <c r="B190" s="5">
-        <v>44581.40625</v>
+        <v>44581.407638888886</v>
       </c>
       <c r="C190" s="3">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="D190" s="3">
         <v>-1</v>
@@ -5171,10 +5172,10 @@
         <v>44587.354166666664</v>
       </c>
       <c r="C191" s="3">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="D191" s="3">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>132</v>
@@ -5188,10 +5189,10 @@
         <v>44587.354166666664</v>
       </c>
       <c r="C192" s="3">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="D192" s="3">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>132</v>
@@ -5205,10 +5206,10 @@
         <v>44589.354166666664</v>
       </c>
       <c r="C193" s="3">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="D193" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>132</v>
@@ -5222,7 +5223,7 @@
         <v>44589.354166666664</v>
       </c>
       <c r="C194" s="3">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D194" s="3">
         <v>40</v>
@@ -5239,10 +5240,10 @@
         <v>44589.354166666664</v>
       </c>
       <c r="C195" s="3">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="D195" s="3">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>132</v>
@@ -5256,10 +5257,10 @@
         <v>44589.354166666664</v>
       </c>
       <c r="C196" s="3">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="D196" s="3">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>132</v>
@@ -5273,7 +5274,7 @@
         <v>44590.354166666664</v>
       </c>
       <c r="C197" s="3">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="D197" s="3">
         <v>-1</v>
@@ -5290,7 +5291,7 @@
         <v>44590.395833333336</v>
       </c>
       <c r="C198" s="3">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="D198" s="3">
         <v>-3</v>
@@ -5307,7 +5308,7 @@
         <v>44590.434027777781</v>
       </c>
       <c r="C199" s="3">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="D199" s="3">
         <v>-1</v>
@@ -5324,7 +5325,7 @@
         <v>44590.4375</v>
       </c>
       <c r="C200" s="3">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="D200" s="3">
         <v>-4</v>
@@ -5338,10 +5339,10 @@
         <v>104</v>
       </c>
       <c r="B201" s="6">
-        <v>44590.4375</v>
+        <v>44590.440972222219</v>
       </c>
       <c r="C201" s="3">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="D201" s="3">
         <v>-4</v>
@@ -5355,10 +5356,10 @@
         <v>105</v>
       </c>
       <c r="B202" s="6">
-        <v>44590.4375</v>
+        <v>44590.444444444445</v>
       </c>
       <c r="C202" s="3">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D202" s="3">
         <v>-3</v>
@@ -5375,10 +5376,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C203" s="3">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D203" s="3">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>130</v>
@@ -5392,10 +5393,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C204" s="3">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="D204" s="3">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>130</v>
@@ -5409,10 +5410,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C205" s="3">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="D205" s="3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>130</v>
@@ -5426,10 +5427,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C206" s="3">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="D206" s="3">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>130</v>
@@ -5443,10 +5444,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C207" s="3">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="D207" s="3">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>130</v>
@@ -5460,10 +5461,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C208" s="3">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="D208" s="3">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>130</v>
@@ -5477,10 +5478,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C209" s="3">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="D209" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>130</v>
@@ -5494,10 +5495,10 @@
         <v>44592.354166666664</v>
       </c>
       <c r="C210" s="3">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="D210" s="3">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>130</v>
@@ -5511,7 +5512,7 @@
         <v>44592.395833333336</v>
       </c>
       <c r="C211" s="3">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D211" s="3">
         <v>-5</v>
@@ -5528,7 +5529,7 @@
         <v>44592.434027777781</v>
       </c>
       <c r="C212" s="3">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D212" s="3">
         <v>-4</v>
@@ -5545,7 +5546,7 @@
         <v>44592.4375</v>
       </c>
       <c r="C213" s="3">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="D213" s="3">
         <v>-5</v>
@@ -5559,10 +5560,10 @@
         <v>111</v>
       </c>
       <c r="B214" s="6">
-        <v>44592.4375</v>
+        <v>44592.444444444445</v>
       </c>
       <c r="C214" s="3">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="D214" s="3">
         <v>-4</v>
@@ -5579,10 +5580,10 @@
         <v>44593.354166666664</v>
       </c>
       <c r="C215" s="3">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="D215" s="3">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>130</v>
@@ -5596,10 +5597,10 @@
         <v>44593.354166666664</v>
       </c>
       <c r="C216" s="3">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="D216" s="3">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>130</v>
@@ -5613,10 +5614,10 @@
         <v>44593.354166666664</v>
       </c>
       <c r="C217" s="3">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="D217" s="3">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>130</v>
@@ -5630,10 +5631,10 @@
         <v>44593.354166666664</v>
       </c>
       <c r="C218" s="3">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="D218" s="3">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>130</v>
@@ -5647,10 +5648,10 @@
         <v>44594.395833333336</v>
       </c>
       <c r="C219" s="3">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="D219" s="3">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>131</v>
@@ -5664,10 +5665,10 @@
         <v>44596.354166666664</v>
       </c>
       <c r="C220" s="3">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="D220" s="3">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>130</v>
@@ -5681,10 +5682,10 @@
         <v>44596.354166666664</v>
       </c>
       <c r="C221" s="3">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="D221" s="3">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>130</v>
@@ -5698,10 +5699,10 @@
         <v>44597.354166666664</v>
       </c>
       <c r="C222" s="3">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="D222" s="3">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>130</v>
@@ -5715,10 +5716,10 @@
         <v>44597.354166666664</v>
       </c>
       <c r="C223" s="3">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="D223" s="3">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>130</v>
@@ -5732,16 +5733,16 @@
         <v>44597.354166666664</v>
       </c>
       <c r="C224" s="3">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="D224" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>116</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>44597.395833333336</v>
       </c>
       <c r="C225" s="3">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="D225" s="3">
         <v>-2</v>
@@ -5758,7 +5759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>117</v>
       </c>
@@ -5766,7 +5767,7 @@
         <v>44597.4375</v>
       </c>
       <c r="C226" s="3">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="D226" s="3">
         <v>-2</v>
@@ -5775,15 +5776,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>118</v>
       </c>
       <c r="B227" s="5">
-        <v>44597.4375</v>
+        <v>44597.438194444447</v>
       </c>
       <c r="C227" s="3">
-        <v>226</v>
+        <v>4</v>
       </c>
       <c r="D227" s="3">
         <v>-2</v>
@@ -5792,7 +5793,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>119</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>44597.854166666664</v>
       </c>
       <c r="C228" s="3">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="D228" s="3">
         <v>-1</v>
@@ -5809,7 +5810,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>120</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>44598.354166666664</v>
       </c>
       <c r="C229" s="3">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="D229" s="3">
         <v>55</v>
@@ -5826,7 +5827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>120</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>44598.354166666664</v>
       </c>
       <c r="C230" s="3">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="D230" s="3">
         <v>37</v>
@@ -5843,7 +5844,694 @@
         <v>130</v>
       </c>
     </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G236" s="3"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G239" s="3"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="3"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G242" s="3"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G243" s="3"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G244" s="3"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G247" s="3"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G248" s="3"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G249" s="3"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G251" s="3"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G252" s="3"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G255" s="3"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G256" s="3"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G259" s="3"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G261" s="3"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G262" s="3"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G263" s="3"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G264" s="3"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G265" s="3"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G266" s="3"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G267" s="3"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G268" s="3"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G269" s="3"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G270" s="3"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G271" s="3"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G272" s="3"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G273" s="3"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G274" s="3"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G275" s="3"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G276" s="3"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G278" s="3"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G279" s="3"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G280" s="3"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G281" s="3"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G282" s="3"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G283" s="3"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G284" s="3"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G285" s="3"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G286" s="3"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G287" s="3"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G288" s="3"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G289" s="3"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G290" s="3"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G291" s="3"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G292" s="3"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G293" s="3"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G294" s="3"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G295" s="3"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G296" s="3"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G297" s="3"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G298" s="3"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G299" s="3"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G300" s="3"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G301" s="3"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G302" s="3"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G303" s="3"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G304" s="3"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G305" s="3"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G306" s="3"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G307" s="3"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G308" s="3"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G309" s="3"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G310" s="3"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G311" s="3"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G312" s="3"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G313" s="3"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G314" s="3"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G315" s="3"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G316" s="3"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G317" s="3"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G318" s="3"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G319" s="3"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G320" s="3"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G321" s="3"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G322" s="3"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G323" s="3"/>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G324" s="3"/>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G325" s="3"/>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G326" s="3"/>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G327" s="3"/>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G328" s="3"/>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G329" s="3"/>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G330" s="3"/>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G331" s="3"/>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G332" s="3"/>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G333" s="3"/>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G334" s="3"/>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G335" s="3"/>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G336" s="3"/>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G337" s="3"/>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G338" s="3"/>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G339" s="3"/>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G340" s="3"/>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G341" s="3"/>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G342" s="3"/>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G343" s="3"/>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G344" s="3"/>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G345" s="3"/>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G346" s="3"/>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G347" s="3"/>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G348" s="3"/>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G349" s="3"/>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G350" s="3"/>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G351" s="3"/>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G352" s="3"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G353" s="3"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G354" s="3"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G355" s="3"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G356" s="3"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G357" s="3"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G358" s="3"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G359" s="3"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G360" s="3"/>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G361" s="3"/>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G362" s="3"/>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G363" s="3"/>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G364" s="3"/>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G365" s="3"/>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G366" s="3"/>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G367" s="3"/>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G368" s="3"/>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G369" s="3"/>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G370" s="3"/>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G371" s="3"/>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G372" s="3"/>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G373" s="3"/>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G374" s="3"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G375" s="3"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G376" s="3"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G377" s="3"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G378" s="3"/>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G379" s="3"/>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G380" s="3"/>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G381" s="3"/>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G382" s="3"/>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G383" s="3"/>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G384" s="3"/>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G385" s="3"/>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G386" s="3"/>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G387" s="3"/>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G388" s="3"/>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G389" s="3"/>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G390" s="3"/>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G391" s="3"/>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G392" s="3"/>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G393" s="3"/>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G394" s="3"/>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G395" s="3"/>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G396" s="3"/>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G397" s="3"/>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G398" s="3"/>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G399" s="3"/>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G400" s="3"/>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G401" s="3"/>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G402" s="3"/>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G403" s="3"/>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G404" s="3"/>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G405" s="3"/>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G406" s="3"/>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G407" s="3"/>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G408" s="3"/>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G409" s="3"/>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G410" s="3"/>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G411" s="3"/>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G412" s="3"/>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G413" s="3"/>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G414" s="3"/>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G415" s="3"/>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G416" s="3"/>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G417" s="3"/>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G418" s="3"/>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G419" s="3"/>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G420" s="3"/>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G421" s="3"/>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G422" s="3"/>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G423" s="3"/>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G424" s="3"/>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G425" s="3"/>
+    </row>
+    <row r="426" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G426" s="3"/>
+    </row>
+    <row r="427" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G427" s="3"/>
+    </row>
+    <row r="428" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G428" s="3"/>
+    </row>
+    <row r="429" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G429" s="3"/>
+    </row>
+    <row r="430" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G430" s="3"/>
+    </row>
+    <row r="431" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G431" s="3"/>
+    </row>
+    <row r="432" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G432" s="3"/>
+    </row>
+    <row r="433" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G433" s="3"/>
+    </row>
+    <row r="434" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G434" s="3"/>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G435" s="3"/>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G436" s="3"/>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G437" s="3"/>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G438" s="3"/>
+    </row>
+    <row r="439" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G439" s="3"/>
+    </row>
+    <row r="440" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G440" s="3"/>
+    </row>
+    <row r="441" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G441" s="3"/>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G442" s="3"/>
+    </row>
+    <row r="443" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G443" s="3"/>
+    </row>
+    <row r="444" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G444" s="3"/>
+    </row>
+    <row r="445" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G445" s="3"/>
+    </row>
+    <row r="446" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G446" s="3"/>
+    </row>
+    <row r="447" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G447" s="3"/>
+    </row>
+    <row r="448" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G448" s="3"/>
+    </row>
+    <row r="449" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G449" s="3"/>
+    </row>
+    <row r="450" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G450" s="3"/>
+    </row>
+    <row r="451" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G451" s="3"/>
+    </row>
+    <row r="452" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G452" s="3"/>
+    </row>
+    <row r="453" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G453" s="3"/>
+    </row>
+    <row r="454" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G454" s="3"/>
+    </row>
+    <row r="455" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G455" s="3"/>
+    </row>
+    <row r="456" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G456" s="3"/>
+    </row>
+    <row r="457" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G457" s="3"/>
+    </row>
+    <row r="458" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G458" s="3"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G230:G458">
+    <sortCondition ref="G230:G458"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6252,7 +6940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CS304 Project.xlsx
+++ b/CS304 Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiesiyuan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE507A0-C4BE-474F-81BD-0035E7A96AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E24D63-614D-3B45-BA8A-8FF82E2C360E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11280" activeTab="1" xr2:uid="{4FF73C70-619E-4A4E-9D5E-EDB17466567F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11280" activeTab="4" xr2:uid="{4FF73C70-619E-4A4E-9D5E-EDB17466567F}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="4">
-        <v>79.5</v>
+        <v>80.5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>127</v>
@@ -921,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="4">
-        <v>54.5</v>
+        <v>55.5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>127</v>
@@ -935,7 +935,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="4">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>127</v>
@@ -949,7 +949,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="4">
-        <v>59.5</v>
+        <v>61.5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>127</v>
@@ -963,7 +963,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="4">
-        <v>89.5</v>
+        <v>92.5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>127</v>
@@ -977,7 +977,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="4">
-        <v>79.5</v>
+        <v>81.5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>127</v>
@@ -991,7 +991,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>127</v>
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="4">
-        <v>69.5</v>
+        <v>70.5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>127</v>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="4">
-        <v>79.5</v>
+        <v>80.5</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>127</v>
@@ -1033,7 +1033,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="4">
-        <v>99.5</v>
+        <v>101.5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>127</v>
@@ -1047,7 +1047,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="4">
-        <v>89.5</v>
+        <v>91.5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>127</v>
@@ -1061,7 +1061,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="4">
-        <v>44.5</v>
+        <v>47.5</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>127</v>
@@ -1075,7 +1075,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="4">
-        <v>54.5</v>
+        <v>57.5</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>127</v>
@@ -1089,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="4">
-        <v>79.5</v>
+        <v>82.5</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>127</v>
@@ -1103,7 +1103,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="4">
-        <v>49.5</v>
+        <v>51.5</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>127</v>
@@ -1117,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>127</v>
@@ -1131,7 +1131,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="4">
-        <v>79.5</v>
+        <v>81.5</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>127</v>
@@ -1145,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="4">
-        <v>79.5</v>
+        <v>82.5</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>127</v>
@@ -1159,7 +1159,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="4">
-        <v>89.5</v>
+        <v>92.5</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>127</v>
@@ -1173,7 +1173,7 @@
         <v>62</v>
       </c>
       <c r="C21" s="4">
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>127</v>
@@ -1187,7 +1187,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>127</v>
@@ -1201,7 +1201,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="4">
-        <v>59.5</v>
+        <v>61.5</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>127</v>
@@ -1215,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="4">
-        <v>89.5</v>
+        <v>91.5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>127</v>
@@ -1229,7 +1229,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="4">
-        <v>24.5</v>
+        <v>26.5</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>127</v>
@@ -1243,7 +1243,7 @@
         <v>67</v>
       </c>
       <c r="C26" s="4">
-        <v>94.5</v>
+        <v>97.5</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>127</v>
@@ -1257,7 +1257,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="4">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>127</v>
@@ -1271,7 +1271,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="4">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>127</v>
@@ -1285,7 +1285,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="4">
-        <v>24.88</v>
+        <v>25.88</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>127</v>
@@ -1299,7 +1299,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="4">
-        <v>69.5</v>
+        <v>72.5</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>127</v>
@@ -1313,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="4">
-        <v>74.5</v>
+        <v>77.5</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>127</v>
@@ -1327,7 +1327,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="4">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>127</v>
@@ -1341,7 +1341,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>127</v>
@@ -1355,7 +1355,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>127</v>
@@ -1369,7 +1369,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>127</v>
@@ -1383,7 +1383,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>127</v>
@@ -1397,7 +1397,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>127</v>
@@ -1411,7 +1411,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="4">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>129</v>
@@ -1425,7 +1425,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>129</v>
@@ -1439,7 +1439,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>129</v>
@@ -1453,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>129</v>
@@ -1467,7 +1467,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>129</v>
@@ -1481,7 +1481,7 @@
         <v>84</v>
       </c>
       <c r="C43" s="4">
-        <v>599.99</v>
+        <v>601.99</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>129</v>
@@ -1495,7 +1495,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="4">
-        <v>39.99</v>
+        <v>42.99</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>129</v>
@@ -1509,7 +1509,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="4">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>129</v>
@@ -1523,7 +1523,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="4">
-        <v>39.99</v>
+        <v>42.99</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>129</v>
@@ -1537,7 +1537,7 @@
         <v>88</v>
       </c>
       <c r="C47" s="4">
-        <v>34.99</v>
+        <v>35.99</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>129</v>
@@ -1551,7 +1551,7 @@
         <v>89</v>
       </c>
       <c r="C48" s="4">
-        <v>34.99</v>
+        <v>36.99</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>129</v>
@@ -1565,7 +1565,7 @@
         <v>90</v>
       </c>
       <c r="C49" s="4">
-        <v>24.99</v>
+        <v>26.99</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>129</v>
@@ -1579,7 +1579,7 @@
         <v>91</v>
       </c>
       <c r="C50" s="4">
-        <v>34.99</v>
+        <v>35.99</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>129</v>
@@ -1593,7 +1593,7 @@
         <v>92</v>
       </c>
       <c r="C51" s="4">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>129</v>
@@ -1607,7 +1607,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="4">
-        <v>34.99</v>
+        <v>36.99</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>129</v>
@@ -1621,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="C53" s="4">
-        <v>34.99</v>
+        <v>35.99</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>129</v>
@@ -1635,7 +1635,7 @@
         <v>95</v>
       </c>
       <c r="C54" s="4">
-        <v>24.99</v>
+        <v>26.99</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>129</v>
@@ -1649,7 +1649,7 @@
         <v>96</v>
       </c>
       <c r="C55" s="4">
-        <v>69.989999999999995</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>129</v>
@@ -1663,7 +1663,7 @@
         <v>97</v>
       </c>
       <c r="C56" s="4">
-        <v>79.989999999999995</v>
+        <v>82.99</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>129</v>
@@ -1677,7 +1677,7 @@
         <v>98</v>
       </c>
       <c r="C57" s="4">
-        <v>24.99</v>
+        <v>26.99</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>129</v>
@@ -1691,7 +1691,7 @@
         <v>99</v>
       </c>
       <c r="C58" s="4">
-        <v>14.99</v>
+        <v>15.99</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>129</v>
@@ -1705,7 +1705,7 @@
         <v>100</v>
       </c>
       <c r="C59" s="4">
-        <v>59.99</v>
+        <v>62.99</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>129</v>
@@ -1719,7 +1719,7 @@
         <v>101</v>
       </c>
       <c r="C60" s="4">
-        <v>34.99</v>
+        <v>36.99</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>129</v>
@@ -1733,7 +1733,7 @@
         <v>102</v>
       </c>
       <c r="C61" s="4">
-        <v>17.989999999999998</v>
+        <v>20.99</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>129</v>
@@ -1747,7 +1747,7 @@
         <v>103</v>
       </c>
       <c r="C62" s="4">
-        <v>34.99</v>
+        <v>35.99</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>129</v>
@@ -1761,7 +1761,7 @@
         <v>104</v>
       </c>
       <c r="C63" s="4">
-        <v>19.989999999999998</v>
+        <v>20.99</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>129</v>
@@ -1775,7 +1775,7 @@
         <v>105</v>
       </c>
       <c r="C64" s="4">
-        <v>19.989999999999998</v>
+        <v>20.99</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>129</v>
@@ -1789,7 +1789,7 @@
         <v>106</v>
       </c>
       <c r="C65" s="4">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>126</v>
@@ -1803,7 +1803,7 @@
         <v>107</v>
       </c>
       <c r="C66" s="4">
-        <v>59.99</v>
+        <v>61.99</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>126</v>
@@ -1817,7 +1817,7 @@
         <v>108</v>
       </c>
       <c r="C67" s="4">
-        <v>49.99</v>
+        <v>50.99</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>126</v>
@@ -1831,7 +1831,7 @@
         <v>109</v>
       </c>
       <c r="C68" s="4">
-        <v>99.98</v>
+        <v>101.98</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>126</v>
@@ -1845,7 +1845,7 @@
         <v>110</v>
       </c>
       <c r="C69" s="4">
-        <v>16.989999999999998</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>126</v>
@@ -1859,7 +1859,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="4">
-        <v>12.99</v>
+        <v>15.99</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>126</v>
@@ -1873,7 +1873,7 @@
         <v>112</v>
       </c>
       <c r="C71" s="4">
-        <v>49.99</v>
+        <v>50.99</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>126</v>
@@ -1887,7 +1887,7 @@
         <v>113</v>
       </c>
       <c r="C72" s="4">
-        <v>57.8</v>
+        <v>58.8</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>126</v>
@@ -1901,7 +1901,7 @@
         <v>114</v>
       </c>
       <c r="C73" s="4">
-        <v>48.2</v>
+        <v>51.2</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>126</v>
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA94FC3F-25AF-0142-BAE5-764EB0A9B859}">
   <dimension ref="A1:G458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -6938,9 +6938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12753D9F-A75C-BA4B-B1BE-D2D1B70C83A3}">
   <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
